--- a/Data/databases/aluminium_container.xlsx
+++ b/Data/databases/aluminium_container.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\Data\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF4C51F-7B21-4167-AD4C-3769BA1F0443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8072C8-2620-4D06-808B-143E52F6961A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
+    <workbookView xWindow="18615" yWindow="0" windowWidth="18930" windowHeight="20445" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="ev391apos" sheetId="1" r:id="rId1"/>
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE942774-4FA8-4DB9-ACB7-61C81F9E1DC2}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1169,7 +1169,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:F33"/>
+      <selection activeCell="A3" sqref="A3:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1857,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2CE9FF-01B5-49A5-A233-8F5964C6076E}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G26" sqref="B26:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2546,21 +2546,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Book","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>